--- a/CMS/Report/PurchaseList.xlsx
+++ b/CMS/Report/PurchaseList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>要求交货日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -556,9 +560,10 @@
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="10.6328125" customWidth="1"/>
     <col min="9" max="9" width="15.26953125" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" customHeight="1">
+    <row r="1" spans="1:12" ht="17" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -590,10 +595,13 @@
         <v>6</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -624,11 +632,14 @@
       <c r="J2" s="4">
         <v>5</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6">
+        <v>43962</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -659,9 +670,12 @@
       <c r="J3" s="4">
         <v>13</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="6">
+        <v>43963</v>
+      </c>
+      <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -688,11 +702,14 @@
       <c r="J4" s="4">
         <v>1.4</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6">
+        <v>43964</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -717,7 +734,10 @@
         <v>43965</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="6">
+        <v>43965</v>
+      </c>
+      <c r="L5" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/CMS/Report/PurchaseList.xlsx
+++ b/CMS/Report/PurchaseList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赵新霞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,11 +121,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>要求交货日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库日期</t>
+    <t>到货日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -560,10 +556,9 @@
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="10.6328125" customWidth="1"/>
     <col min="9" max="9" width="15.26953125" customWidth="1"/>
-    <col min="11" max="11" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" customHeight="1">
+    <row r="1" spans="1:11" ht="17" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -589,19 +584,16 @@
         <v>5</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -632,14 +624,11 @@
       <c r="J2" s="4">
         <v>5</v>
       </c>
-      <c r="K2" s="6">
-        <v>43962</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>25</v>
+      <c r="K2" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:11">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -662,7 +651,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I3" s="6">
         <v>43963</v>
@@ -670,12 +659,9 @@
       <c r="J3" s="4">
         <v>13</v>
       </c>
-      <c r="K3" s="6">
-        <v>43963</v>
-      </c>
-      <c r="L3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:11">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -702,14 +688,11 @@
       <c r="J4" s="4">
         <v>1.4</v>
       </c>
-      <c r="K4" s="6">
-        <v>43964</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>26</v>
+      <c r="K4" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:11">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -734,10 +717,7 @@
         <v>43965</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="6">
-        <v>43965</v>
-      </c>
-      <c r="L5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
